--- a/biology/Botanique/Polytrichastrum_alpinum/Polytrichastrum_alpinum.xlsx
+++ b/biology/Botanique/Polytrichastrum_alpinum/Polytrichastrum_alpinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polytrichastrum alpinum est une espèce de mousses de la famille des Polytrichaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pogonatum alpinum (Hedw.) Röhl.
 Polytrichum alpinum Hedw.
@@ -543,13 +557,15 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (15 novembre 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (15 novembre 2018) :
 variété Polytrichastrum alpinum var. fragile (Bryhn) D.G. Long
 variété Polytrichastrum alpinum var. septentrionale (Brid.) G.L. Sm.
 variété Polytrichastrum alpinum var. sylvaticum (Menzies) G.L. Merr.
-Selon Tropicos                                           (15 novembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (15 novembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 variété Polytrichastrum alpinum var. alpinum
 variété Polytrichastrum alpinum var. brevifolium (R. Br.) Brassard
 variété Polytrichastrum alpinum var. fragariformis (W.X. Xu &amp; R.L. Xiong) Redf. &amp; P.C. Wu
